--- a/biology/Zoologie/Ekaterina_Mikhailovna_Andreïeva/Ekaterina_Mikhailovna_Andreïeva.xlsx
+++ b/biology/Zoologie/Ekaterina_Mikhailovna_Andreïeva/Ekaterina_Mikhailovna_Andreïeva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ekaterina_Mikhailovna_Andre%C3%AFeva</t>
+          <t>Ekaterina_Mikhailovna_Andreïeva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekaterina Mikhailovna Andreïeva[1] ou Katarzyna Andrejewa-Prószyńska est une arachnologue né le 16 novembre 1941 à Tachkent et décédé le 18 septembre 2008 à Milanówek.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ekaterina Mikhailovna Andreïeva ou Katarzyna Andrejewa-Prószyńska est une arachnologue né le 16 novembre 1941 à Tachkent et décédé le 18 septembre 2008 à Milanówek.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ekaterina_Mikhailovna_Andre%C3%AFeva</t>
+          <t>Ekaterina_Mikhailovna_Andreïeva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soviétique d'origine polonaise, elle naît en Asie centrale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soviétique d'origine polonaise, elle naît en Asie centrale.
 Le père de Ekaterina Mikhailovna Andreïeva, Mikhail Stepanovitch Andreïev est professeur d'ethnographie à l'université de Tachkent et sa mère est étudiante en ethnographie à la même université.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ekaterina_Mikhailovna_Andre%C3%AFeva</t>
+          <t>Ekaterina_Mikhailovna_Andreïeva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aelurillus andreevae Nenilin, 1984
 Parasyrisca andreevae Ovtsharenko, Platnick &amp; Marusik, 1995
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ekaterina_Mikhailovna_Andre%C3%AFeva</t>
+          <t>Ekaterina_Mikhailovna_Andreïeva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agelena tadzhika Andreeva, 1976
 Alioranus avanturus Andreeva &amp; Tyschchenko, 1970
